--- a/Gantt_Proyecto.xlsx
+++ b/Gantt_Proyecto.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A6A4687A-87AA-4048-9047-65B45ACF8B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0062A47-9DE1-4A20-817B-0C6CEE8DDCE6}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{A6A4687A-87AA-4048-9047-65B45ACF8B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8051C614-271F-433C-B580-DC88B2D531EA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2181,8 +2181,8 @@
   </sheetPr>
   <dimension ref="A1:BP29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3544,7 +3544,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="57">
         <f>F12+G12</f>
@@ -3791,7 +3791,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="57">
         <f>F12+G12+G13</f>
@@ -4038,7 +4038,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="57">
         <f>F12+G12+G13+G14</f>
@@ -4770,7 +4770,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="56">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="F18" s="57">
         <f>F16+G16</f>
@@ -5017,7 +5017,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="56">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F19" s="57">
         <f>F18+G18</f>
@@ -7362,12 +7362,22 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7647,28 +7657,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7695,13 +7699,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>